--- a/pred_ohlcv/54_21/2019-10-26 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-17978.20659999998</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-21962.20659999998</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-14694.80659999998</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-26684.80659999997</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-26684.80659999997</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-21684.80659999997</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-19578.06509999997</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-18483.06509999997</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-14417.75659999998</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-14473.85749999997</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-14463.85749999997</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-18993.85749999998</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-15793.85749999998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-18614.91039999998</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-17588.91039999998</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-17588.91039999998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-17588.91039999998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>502344.8236139785</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>522548.0989</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>522415.8723</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>512645.3712</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>325983.6869999999</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>322840.5555999999</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>193113.3026403343</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>193113.3026403343</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>193072.0690403343</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>197949.5758403343</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>205461.0623403343</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>205322.3598403342</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>204213.0049403342</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>212343.0049403342</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-17978.20659999998</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-21962.20659999998</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-14694.80659999998</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-26684.80659999997</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-26684.80659999997</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-21684.80659999997</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-19578.06509999997</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-18483.06509999997</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-14417.75659999998</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-14473.85749999997</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-14463.85749999997</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-18993.85749999998</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-15793.85749999998</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-18614.91039999998</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-17588.91039999998</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-17588.91039999998</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-17588.91039999998</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>502344.8236139785</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>552072.8988</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>552072.8988</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>522548.0989</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>522415.8723</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>512645.3712</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>193113.3026403343</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>193113.3026403343</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>193072.0690403343</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>197949.5758403343</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>205461.0623403343</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>205322.3598403342</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>204213.0049403342</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>212343.0049403342</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
